--- a/microsoft-365/enterprise/media/Group-License-Mgmt-PowerShell.xlsx
+++ b/microsoft-365/enterprise/media/Group-License-Mgmt-PowerShell.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21904"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCD7D35-B728-47F3-B679-1B0BF57EB3A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8C8AA6-DBCA-4534-A4A8-46D8045D1D49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DB72A67B-08E2-4272-83B0-820083636442}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Steps:</t>
   </si>
@@ -103,53 +103,6 @@
   </si>
   <si>
     <t>4. Copy the commands in column D to the clipboard, and then paste them into your PowerShell window or the PowerShell ISE.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Remove</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and then check the boxes for the groups to which you want to add or remove the user account.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -199,9 +152,6 @@
     </r>
   </si>
   <si>
-    <t>3. Fill in the blue background cell (A13) with the user account UPN (jdoe@contoso.com) or display name (John Doe).</t>
-  </si>
-  <si>
     <t>Assign</t>
   </si>
   <si>
@@ -230,13 +180,66 @@
   </si>
   <si>
     <t>2. Fill in column E with the display names of your groups (typically done once). Remove those you are not using.</t>
+  </si>
+  <si>
+    <t>Last update: 7/10/2019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and then check the boxes for the groups to which you want to add or remove the user account.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Fill in the blue background cell (A13) with the user account UPN (jdoe@contoso.com) or display name (John Doe).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,13 +259,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,14 +317,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -336,6 +331,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1528,13 +1524,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -1550,17 +1545,17 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I7" t="str">
         <f>IF(G7,G7,"")</f>
@@ -1582,15 +1577,15 @@
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>4</v>
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1598,7 +1593,7 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G12" t="s">
@@ -1616,7 +1611,7 @@
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="G13" t="b">
         <v>0</v>
       </c>
@@ -1638,7 +1633,7 @@
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="G14" t="b">
         <v>0</v>
       </c>
@@ -1664,7 +1659,7 @@
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="G15" t="b">
         <v>0</v>
       </c>
@@ -1690,7 +1685,7 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="G16" t="b">
         <v>0</v>
       </c>
@@ -1716,7 +1711,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="G17" t="b">
         <v>0</v>
       </c>
@@ -1746,7 +1741,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
       <c r="G18" t="b">
         <v>0</v>
       </c>
@@ -1776,7 +1771,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
       <c r="G19" t="b">
         <v>0</v>
       </c>
@@ -1802,7 +1797,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4"/>
       <c r="G20" t="b">
         <v>0</v>
       </c>
@@ -1828,7 +1823,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="4"/>
       <c r="G21" t="b">
         <v>0</v>
       </c>
@@ -1854,7 +1849,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="G22" t="b">
         <v>0</v>
       </c>
@@ -1880,7 +1875,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="G23" t="b">
         <v>0</v>
       </c>
@@ -1906,318 +1901,320 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="7"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="7"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="7"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="7"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="7"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="7"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="7"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="7"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="7"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="7"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="7"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="4"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="4"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="4"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="4"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="4"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="4"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="7"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="6"/>
       <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="7"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="7"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="7"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="7"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="7"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="7"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="7"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="7"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="7"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="7"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
+      <c r="A92" s="5"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
+      <c r="A93" s="5"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
+      <c r="A95" s="5"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
+      <c r="A96" s="5"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
+      <c r="A97" s="5"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="A98" s="7"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="7"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
+      <c r="A100" s="6"/>
       <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="7"/>
       <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="7"/>
       <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
+      <c r="A105" s="7"/>
       <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="7"/>
       <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="7"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="7"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="7"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="7"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="A113" s="7"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="7"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="7"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="7"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
+      <c r="A117" s="7"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2521,8 +2518,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>28</v>
+      <c r="A1" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -2537,73 +2534,73 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="7"/>
       <c r="AE7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M8" s="7"/>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M8" s="8"/>
-      <c r="AE8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="8"/>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="M12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M13" s="8"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="9"/>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f>IF(B14="","","$License = New-Object -TypeName Microsoft.Open.AzureAD.Model.AssignedLicense")</f>
         <v/>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="7"/>
       <c r="AE15" t="s">
         <v>12</v>
       </c>
@@ -2613,7 +2610,7 @@
         <f>IF(B14="","",IF($B$10="Assign",CONCATENATE("$License.SkuId = (Get-AzureADSubscribedSku | Where-Object -Property SkuPartNumber -Value ",CHAR(34),"SPE_",RIGHT($B$11,2),CHAR(34)," -EQ).SkuID"),"$licenses = New-Object -TypeName Microsoft.Open.AzureAD.Model.AssignedLicenses"))</f>
         <v/>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="7"/>
       <c r="AE16" t="s">
         <v>13</v>
       </c>
@@ -2624,58 +2621,58 @@
         <f>IF(B14="","",IF($B$10="Assign","$licenses = New-Object -TypeName Microsoft.Open.AzureAD.Model.AssignedLicenses",CONCATENATE("$license.SkuId = (Get-AzureADSubscribedSku | Where-Object -Property SkuPartNumber -Value ",CHAR(34),"SPE_",RIGHT($B$11,2),CHAR(34)," -EQ).SkuID")))</f>
         <v/>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>IF(B14="","","$licenses.AddLicenses = $License")</f>
         <v/>
       </c>
-      <c r="M18" s="8"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>IF(B14="","",IF($B$10="Assign",CONCATENATE("Set-AzureADUserLicense -ObjectId ",+IF(ISNUMBER(SEARCH("@",$B$14)),CONCATENATE($B$14," -AssignedLicenses $licenses"),CONCATENATE("(Get-AzureADUser | Where { $_.DisplayName -eq ",CHAR(34),$B$14,CHAR(34)," } ).UserPrincipalName -AssignedLicenses $licenses"))),CONCATENATE("Set-AzureADUserLicense -ObjectId ",+IF(ISNUMBER(SEARCH("@",$B$14)),CONCATENATE($B$14," -AssignedLicenses $licenses"),CONCATENATE("(Get-AzureADUser | Where { $_.DisplayName -eq ",CHAR(34),$B$14,CHAR(34)," } ).UserPrincipalName -AssignedLicenses $licenses")))))</f>
         <v/>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>IF(B14="","",IF($B$10="Assign","","$Licenses.AddLicenses = @()"))</f>
         <v/>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>IF(B14="","",IF($B$10="Assign","",CONCATENATE("$Licenses.RemoveLicenses =  (Get-AzureADSubscribedSku | Where-Object -Property SkuPartNumber -Value ",CHAR(34),"SPE_",RIGHT($B$11,2),CHAR(34)," -EQ).SkuID")))</f>
         <v/>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>IF(B14="","",IF($B$10="Assign","",CONCATENATE("Set-AzureADUserLicense -ObjectId ",+IF(ISNUMBER(SEARCH("@",$B$14)),CONCATENATE($B$14," -AssignedLicenses $licenses"),CONCATENATE("(Get-AzureADUser | Where { $_.DisplayName -eq ",CHAR(34),B14,CHAR(34)," } ).UserPrincipalName -AssignedLicenses $licenses")))))</f>
         <v/>
       </c>
-      <c r="M22" s="8"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
